--- a/ruby/res/test.xlsx
+++ b/ruby/res/test.xlsx
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="E9:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,95 +410,95 @@
     <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
         <v>1</v>
       </c>
     </row>
